--- a/xls/itemsEquip.xlsx
+++ b/xls/itemsEquip.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="12330" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@装备表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,51 +119,6 @@
     <t>球鞋</t>
   </si>
   <si>
-    <t>高仿发带</t>
-  </si>
-  <si>
-    <t>高仿球衣</t>
-  </si>
-  <si>
-    <t>高仿球裤</t>
-  </si>
-  <si>
-    <t>高仿护腿板</t>
-  </si>
-  <si>
-    <t>高仿球鞋</t>
-  </si>
-  <si>
-    <t>正品发带</t>
-  </si>
-  <si>
-    <t>正品球衣</t>
-  </si>
-  <si>
-    <t>正品球裤</t>
-  </si>
-  <si>
-    <t>正品护腿板</t>
-  </si>
-  <si>
-    <t>正品球鞋</t>
-  </si>
-  <si>
-    <t>纳米发带</t>
-  </si>
-  <si>
-    <t>纳米球衣</t>
-  </si>
-  <si>
-    <t>纳米球裤</t>
-  </si>
-  <si>
-    <t>纳米护腿板</t>
-  </si>
-  <si>
-    <t>纳米球鞋</t>
-  </si>
-  <si>
     <t>钛金发带</t>
   </si>
   <si>
@@ -179,21 +134,6 @@
     <t>钛金球鞋</t>
   </si>
   <si>
-    <t>碳纤维发带</t>
-  </si>
-  <si>
-    <t>碳纤维球衣</t>
-  </si>
-  <si>
-    <t>碳纤维球裤</t>
-  </si>
-  <si>
-    <t>碳纤维护腿板</t>
-  </si>
-  <si>
-    <t>碳纤维球鞋</t>
-  </si>
-  <si>
     <t>头带:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +171,98 @@
   </si>
   <si>
     <t>controll[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质发带</t>
+  </si>
+  <si>
+    <t>优质球衣</t>
+  </si>
+  <si>
+    <t>优质球裤</t>
+  </si>
+  <si>
+    <t>优质护腿板</t>
+  </si>
+  <si>
+    <t>优质球鞋</t>
+  </si>
+  <si>
+    <t>名牌发带</t>
+  </si>
+  <si>
+    <t>名牌球衣</t>
+  </si>
+  <si>
+    <t>名牌球裤</t>
+  </si>
+  <si>
+    <t>名牌护腿板</t>
+  </si>
+  <si>
+    <t>名牌球鞋</t>
+  </si>
+  <si>
+    <t>α元素发带</t>
+  </si>
+  <si>
+    <t>α元素球衣</t>
+  </si>
+  <si>
+    <t>α元素球裤</t>
+  </si>
+  <si>
+    <t>α元素护腿板</t>
+  </si>
+  <si>
+    <t>α元素球鞋</t>
+  </si>
+  <si>
+    <t>超纤维发带</t>
+  </si>
+  <si>
+    <t>超纤维球衣</t>
+  </si>
+  <si>
+    <t>超纤维球裤</t>
+  </si>
+  <si>
+    <t>超纤维护腿板</t>
+  </si>
+  <si>
+    <t>超纤维球鞋</t>
+  </si>
+  <si>
+    <t>star[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxStar[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stronglevel[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxstronglevel[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认强化等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大强化等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,74 +332,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,14 +344,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -422,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,7 +653,7 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -704,19 +668,19 @@
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>16</v>
@@ -724,8 +688,20 @@
       <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,8 +738,20 @@
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>101001</v>
       </c>
@@ -800,8 +788,20 @@
       <c r="L3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>101002</v>
       </c>
@@ -838,8 +838,20 @@
       <c r="L4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>101003</v>
       </c>
@@ -876,8 +888,20 @@
       <c r="L5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>101004</v>
       </c>
@@ -914,8 +938,20 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>101005</v>
       </c>
@@ -952,13 +988,25 @@
       <c r="L7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>101101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -990,13 +1038,25 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>101102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -1028,13 +1088,25 @@
       <c r="L9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>101103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -1066,13 +1138,25 @@
       <c r="L10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>101104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -1104,13 +1188,25 @@
       <c r="L11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>101105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -1142,13 +1238,25 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>101201</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -1180,13 +1288,25 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>101202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -1218,13 +1338,25 @@
       <c r="L14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>101203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -1256,13 +1388,25 @@
       <c r="L15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>101204</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -1294,13 +1438,25 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>101205</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
@@ -1332,13 +1488,25 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>101301</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -1370,13 +1538,25 @@
       <c r="L18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>101302</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -1408,13 +1588,25 @@
       <c r="L19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>5</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>101303</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
@@ -1446,13 +1638,25 @@
       <c r="L20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>5</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>101304</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -1484,13 +1688,25 @@
       <c r="L21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>101305</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>28</v>
@@ -1522,13 +1738,25 @@
       <c r="L22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>5</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>101401</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -1560,13 +1788,25 @@
       <c r="L23" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>5</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>101402</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
@@ -1598,13 +1838,25 @@
       <c r="L24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>101403</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -1636,13 +1888,25 @@
       <c r="L25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>5</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>101404</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
@@ -1674,13 +1938,25 @@
       <c r="L26" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>101405</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>28</v>
@@ -1712,13 +1988,25 @@
       <c r="L27" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>5</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>101501</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -1750,13 +2038,25 @@
       <c r="L28" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>5</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>101502</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>22</v>
@@ -1788,13 +2088,25 @@
       <c r="L29" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>101503</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>24</v>
@@ -1826,13 +2138,25 @@
       <c r="L30" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>101504</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>26</v>
@@ -1864,13 +2188,25 @@
       <c r="L31" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>101505</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>28</v>
@@ -1901,6 +2237,18 @@
       </c>
       <c r="L32" s="2">
         <v>3</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>5</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1936,31 +2284,31 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
     </row>

--- a/xls/itemsEquip.xlsx
+++ b/xls/itemsEquip.xlsx
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1365,7 +1365,7 @@
         <v>88</v>
       </c>
       <c r="E15" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>35</v>
@@ -1615,7 +1615,7 @@
         <v>110</v>
       </c>
       <c r="E20" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
         <v>35</v>
@@ -1865,7 +1865,7 @@
         <v>110</v>
       </c>
       <c r="E25" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>35</v>
@@ -2115,7 +2115,7 @@
         <v>110</v>
       </c>
       <c r="E30" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
         <v>35</v>

--- a/xls/itemsEquip.xlsx
+++ b/xls/itemsEquip.xlsx
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9" s="2">
         <v>1</v>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12" s="2">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O13" s="2">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O14" s="2">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" s="2">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16" s="2">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O17" s="2">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" s="2">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O19" s="2">
         <v>1</v>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O20" s="2">
         <v>1</v>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O21" s="2">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O22" s="2">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O23" s="2">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" s="2">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O25" s="2">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O26" s="2">
         <v>1</v>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27" s="2">
         <v>1</v>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O28" s="2">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O29" s="2">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O30" s="2">
         <v>1</v>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O31" s="2">
         <v>1</v>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O32" s="2">
         <v>1</v>

--- a/xls/itemsEquip.xlsx
+++ b/xls/itemsEquip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12330" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="@装备表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,137 @@
   </si>
   <si>
     <t>最大强化等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needOpenHold[.][funcStrDict]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem1[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem3[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem2[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openGemMaterial[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0;2:10;3:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0;2:10;3:21</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:22</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:23</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:24</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:25</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:26</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:27</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:28</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:29</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:30</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:31</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:32</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:33</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:34</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:35</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:36</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:37</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:38</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:39</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:40</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:41</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:42</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:43</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:44</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:45</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:46</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:47</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:48</t>
+  </si>
+  <si>
+    <t>1:0;2:10;3:49</t>
+  </si>
+  <si>
+    <t>开槽刀ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +431,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,7 +455,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -317,15 +463,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -630,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,10 +822,17 @@
     <col min="10" max="10" width="20.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="16.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.25" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="13" max="15" width="9" style="3"/>
+    <col min="16" max="16" width="26.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -700,8 +879,23 @@
       <c r="P1" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Q1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,8 +944,23 @@
       <c r="P2" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Q2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>101001</v>
       </c>
@@ -788,20 +997,35 @@
       <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="M3" s="8">
+        <v>2</v>
+      </c>
+      <c r="N3" s="8">
         <v>6</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
       </c>
       <c r="P3" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>101002</v>
       </c>
@@ -838,20 +1062,35 @@
       <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" s="8">
         <v>6</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
       </c>
       <c r="P4" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>101003</v>
       </c>
@@ -888,20 +1127,35 @@
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="M5" s="8">
+        <v>2</v>
+      </c>
+      <c r="N5" s="8">
         <v>6</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>101004</v>
       </c>
@@ -938,20 +1192,35 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
         <v>6</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
       </c>
       <c r="P6" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>101005</v>
       </c>
@@ -988,20 +1257,35 @@
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="8">
         <v>6</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
       </c>
       <c r="P7" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>101101</v>
       </c>
@@ -1038,20 +1322,35 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="M8" s="8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="8">
         <v>6</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
       </c>
       <c r="P8" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>101102</v>
       </c>
@@ -1088,20 +1387,35 @@
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="M9" s="8">
+        <v>3</v>
+      </c>
+      <c r="N9" s="8">
         <v>6</v>
       </c>
       <c r="O9" s="2">
         <v>1</v>
       </c>
       <c r="P9" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>101103</v>
       </c>
@@ -1138,20 +1452,35 @@
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="M10" s="8">
+        <v>3</v>
+      </c>
+      <c r="N10" s="8">
         <v>6</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>101104</v>
       </c>
@@ -1188,20 +1517,35 @@
       <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="M11" s="8">
+        <v>3</v>
+      </c>
+      <c r="N11" s="8">
         <v>6</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
       </c>
       <c r="P11" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>101105</v>
       </c>
@@ -1238,20 +1582,35 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="M12" s="8">
+        <v>3</v>
+      </c>
+      <c r="N12" s="8">
         <v>6</v>
       </c>
       <c r="O12" s="2">
         <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>101201</v>
       </c>
@@ -1288,20 +1647,35 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="M13" s="8">
+        <v>4</v>
+      </c>
+      <c r="N13" s="8">
         <v>6</v>
       </c>
       <c r="O13" s="2">
         <v>1</v>
       </c>
       <c r="P13" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>101202</v>
       </c>
@@ -1338,20 +1712,35 @@
       <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="M14" s="8">
+        <v>4</v>
+      </c>
+      <c r="N14" s="8">
         <v>6</v>
       </c>
       <c r="O14" s="2">
         <v>1</v>
       </c>
       <c r="P14" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>101203</v>
       </c>
@@ -1388,20 +1777,35 @@
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="M15" s="8">
+        <v>4</v>
+      </c>
+      <c r="N15" s="8">
         <v>6</v>
       </c>
       <c r="O15" s="2">
         <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>101204</v>
       </c>
@@ -1438,20 +1842,35 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="M16" s="8">
+        <v>4</v>
+      </c>
+      <c r="N16" s="8">
         <v>6</v>
       </c>
       <c r="O16" s="2">
         <v>1</v>
       </c>
       <c r="P16" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>101205</v>
       </c>
@@ -1488,20 +1907,35 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="M17" s="8">
+        <v>4</v>
+      </c>
+      <c r="N17" s="8">
         <v>6</v>
       </c>
       <c r="O17" s="2">
         <v>1</v>
       </c>
       <c r="P17" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>101301</v>
       </c>
@@ -1538,20 +1972,35 @@
       <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="M18" s="8">
+        <v>5</v>
+      </c>
+      <c r="N18" s="8">
         <v>6</v>
       </c>
       <c r="O18" s="2">
         <v>1</v>
       </c>
       <c r="P18" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>101302</v>
       </c>
@@ -1588,20 +2037,35 @@
       <c r="L19" s="2">
         <v>1</v>
       </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="M19" s="8">
+        <v>5</v>
+      </c>
+      <c r="N19" s="8">
         <v>6</v>
       </c>
       <c r="O19" s="2">
         <v>1</v>
       </c>
       <c r="P19" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>101303</v>
       </c>
@@ -1638,20 +2102,35 @@
       <c r="L20" s="2">
         <v>1</v>
       </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="M20" s="8">
+        <v>5</v>
+      </c>
+      <c r="N20" s="8">
         <v>6</v>
       </c>
       <c r="O20" s="2">
         <v>1</v>
       </c>
       <c r="P20" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>101304</v>
       </c>
@@ -1688,20 +2167,35 @@
       <c r="L21" s="2">
         <v>1</v>
       </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="M21" s="8">
+        <v>5</v>
+      </c>
+      <c r="N21" s="8">
         <v>6</v>
       </c>
       <c r="O21" s="2">
         <v>1</v>
       </c>
       <c r="P21" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>101305</v>
       </c>
@@ -1738,20 +2232,35 @@
       <c r="L22" s="2">
         <v>1</v>
       </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2">
+      <c r="M22" s="8">
+        <v>5</v>
+      </c>
+      <c r="N22" s="8">
         <v>6</v>
       </c>
       <c r="O22" s="2">
         <v>1</v>
       </c>
       <c r="P22" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>101401</v>
       </c>
@@ -1788,20 +2297,35 @@
       <c r="L23" s="2">
         <v>2</v>
       </c>
-      <c r="M23" s="2">
-        <v>1</v>
-      </c>
-      <c r="N23" s="2">
+      <c r="M23" s="8">
+        <v>5</v>
+      </c>
+      <c r="N23" s="8">
         <v>6</v>
       </c>
       <c r="O23" s="2">
         <v>1</v>
       </c>
       <c r="P23" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>101402</v>
       </c>
@@ -1838,20 +2362,35 @@
       <c r="L24" s="2">
         <v>2</v>
       </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="M24" s="8">
+        <v>5</v>
+      </c>
+      <c r="N24" s="8">
         <v>6</v>
       </c>
       <c r="O24" s="2">
         <v>1</v>
       </c>
       <c r="P24" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>101403</v>
       </c>
@@ -1888,20 +2427,35 @@
       <c r="L25" s="2">
         <v>2</v>
       </c>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="M25" s="8">
+        <v>5</v>
+      </c>
+      <c r="N25" s="8">
         <v>6</v>
       </c>
       <c r="O25" s="2">
         <v>1</v>
       </c>
       <c r="P25" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>101404</v>
       </c>
@@ -1938,20 +2492,35 @@
       <c r="L26" s="2">
         <v>2</v>
       </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="M26" s="8">
+        <v>5</v>
+      </c>
+      <c r="N26" s="8">
         <v>6</v>
       </c>
       <c r="O26" s="2">
         <v>1</v>
       </c>
       <c r="P26" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>101405</v>
       </c>
@@ -1988,20 +2557,35 @@
       <c r="L27" s="2">
         <v>2</v>
       </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
+      <c r="M27" s="8">
+        <v>5</v>
+      </c>
+      <c r="N27" s="8">
         <v>6</v>
       </c>
       <c r="O27" s="2">
         <v>1</v>
       </c>
       <c r="P27" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R27" s="6">
+        <v>0</v>
+      </c>
+      <c r="S27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>101501</v>
       </c>
@@ -2038,20 +2622,35 @@
       <c r="L28" s="2">
         <v>3</v>
       </c>
-      <c r="M28" s="2">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="M28" s="8">
+        <v>5</v>
+      </c>
+      <c r="N28" s="8">
         <v>6</v>
       </c>
       <c r="O28" s="2">
         <v>1</v>
       </c>
       <c r="P28" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>101502</v>
       </c>
@@ -2088,20 +2687,35 @@
       <c r="L29" s="2">
         <v>3</v>
       </c>
-      <c r="M29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="M29" s="8">
+        <v>5</v>
+      </c>
+      <c r="N29" s="8">
         <v>6</v>
       </c>
       <c r="O29" s="2">
         <v>1</v>
       </c>
       <c r="P29" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0</v>
+      </c>
+      <c r="S29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>101503</v>
       </c>
@@ -2138,20 +2752,35 @@
       <c r="L30" s="2">
         <v>3</v>
       </c>
-      <c r="M30" s="2">
-        <v>1</v>
-      </c>
-      <c r="N30" s="2">
+      <c r="M30" s="8">
+        <v>5</v>
+      </c>
+      <c r="N30" s="8">
         <v>6</v>
       </c>
       <c r="O30" s="2">
         <v>1</v>
       </c>
       <c r="P30" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U30" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>101504</v>
       </c>
@@ -2188,20 +2817,35 @@
       <c r="L31" s="2">
         <v>3</v>
       </c>
-      <c r="M31" s="2">
-        <v>1</v>
-      </c>
-      <c r="N31" s="2">
+      <c r="M31" s="8">
+        <v>5</v>
+      </c>
+      <c r="N31" s="8">
         <v>6</v>
       </c>
       <c r="O31" s="2">
         <v>1</v>
       </c>
       <c r="P31" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="6">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>101505</v>
       </c>
@@ -2238,17 +2882,32 @@
       <c r="L32" s="2">
         <v>3</v>
       </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="M32" s="8">
+        <v>5</v>
+      </c>
+      <c r="N32" s="8">
         <v>6</v>
       </c>
       <c r="O32" s="2">
         <v>1</v>
       </c>
       <c r="P32" s="2">
-        <v>50</v>
+        <v>120</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0</v>
+      </c>
+      <c r="S32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="6">
+        <v>102022</v>
       </c>
     </row>
   </sheetData>

--- a/xls/itemsEquip.xlsx
+++ b/xls/itemsEquip.xlsx
@@ -73,9 +73,6 @@
     <t>shoot[.][funcInt]</t>
   </si>
   <si>
-    <t>pass[.][funcInt]</t>
-  </si>
-  <si>
     <t>defend[.][funcInt]</t>
   </si>
   <si>
@@ -394,6 +391,10 @@
   </si>
   <si>
     <t>开槽刀ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passBall[.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +806,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:M32"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,7 +835,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -844,55 +845,55 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Q1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19.5" x14ac:dyDescent="0.3">
@@ -933,31 +934,31 @@
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="R2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="U2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -965,10 +966,10 @@
         <v>101001</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>44</v>
@@ -1010,7 +1011,7 @@
         <v>120</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R3" s="6">
         <v>0</v>
@@ -1030,10 +1031,10 @@
         <v>101002</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1075,7 +1076,7 @@
         <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R4" s="6">
         <v>0</v>
@@ -1095,10 +1096,10 @@
         <v>101003</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>44</v>
@@ -1140,7 +1141,7 @@
         <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R5" s="6">
         <v>0</v>
@@ -1160,10 +1161,10 @@
         <v>101004</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1205,7 +1206,7 @@
         <v>120</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R6" s="6">
         <v>0</v>
@@ -1225,10 +1226,10 @@
         <v>101005</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1270,7 +1271,7 @@
         <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R7" s="6">
         <v>0</v>
@@ -1290,10 +1291,10 @@
         <v>101101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>66</v>
@@ -1335,7 +1336,7 @@
         <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R8" s="6">
         <v>0</v>
@@ -1355,10 +1356,10 @@
         <v>101102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1400,7 +1401,7 @@
         <v>120</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R9" s="6">
         <v>0</v>
@@ -1420,10 +1421,10 @@
         <v>101103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>66</v>
@@ -1465,7 +1466,7 @@
         <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R10" s="6">
         <v>0</v>
@@ -1485,10 +1486,10 @@
         <v>101104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1530,7 +1531,7 @@
         <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R11" s="6">
         <v>0</v>
@@ -1550,10 +1551,10 @@
         <v>101105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -1595,7 +1596,7 @@
         <v>120</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R12" s="6">
         <v>0</v>
@@ -1615,10 +1616,10 @@
         <v>101201</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>88</v>
@@ -1660,7 +1661,7 @@
         <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R13" s="6">
         <v>0</v>
@@ -1680,10 +1681,10 @@
         <v>101202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -1725,7 +1726,7 @@
         <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="6">
         <v>0</v>
@@ -1745,10 +1746,10 @@
         <v>101203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>88</v>
@@ -1790,7 +1791,7 @@
         <v>120</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R15" s="6">
         <v>0</v>
@@ -1810,10 +1811,10 @@
         <v>101204</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1855,7 +1856,7 @@
         <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R16" s="6">
         <v>0</v>
@@ -1875,10 +1876,10 @@
         <v>101205</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -1920,7 +1921,7 @@
         <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R17" s="6">
         <v>0</v>
@@ -1940,10 +1941,10 @@
         <v>101301</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>110</v>
@@ -1985,7 +1986,7 @@
         <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R18" s="6">
         <v>0</v>
@@ -2005,10 +2006,10 @@
         <v>101302</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2050,7 +2051,7 @@
         <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R19" s="6">
         <v>0</v>
@@ -2070,10 +2071,10 @@
         <v>101303</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2">
         <v>110</v>
@@ -2115,7 +2116,7 @@
         <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R20" s="6">
         <v>0</v>
@@ -2135,10 +2136,10 @@
         <v>101304</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -2180,7 +2181,7 @@
         <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R21" s="6">
         <v>0</v>
@@ -2200,10 +2201,10 @@
         <v>101305</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -2245,7 +2246,7 @@
         <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R22" s="6">
         <v>0</v>
@@ -2265,10 +2266,10 @@
         <v>101401</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
         <v>110</v>
@@ -2310,7 +2311,7 @@
         <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R23" s="6">
         <v>0</v>
@@ -2330,10 +2331,10 @@
         <v>101402</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -2375,7 +2376,7 @@
         <v>120</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R24" s="6">
         <v>0</v>
@@ -2395,10 +2396,10 @@
         <v>101403</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2">
         <v>110</v>
@@ -2440,7 +2441,7 @@
         <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R25" s="6">
         <v>0</v>
@@ -2460,10 +2461,10 @@
         <v>101404</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2505,7 +2506,7 @@
         <v>120</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R26" s="6">
         <v>0</v>
@@ -2525,10 +2526,10 @@
         <v>101405</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -2570,7 +2571,7 @@
         <v>120</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R27" s="6">
         <v>0</v>
@@ -2590,10 +2591,10 @@
         <v>101501</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2">
         <v>110</v>
@@ -2635,7 +2636,7 @@
         <v>120</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R28" s="6">
         <v>0</v>
@@ -2655,10 +2656,10 @@
         <v>101502</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -2700,7 +2701,7 @@
         <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R29" s="6">
         <v>0</v>
@@ -2720,10 +2721,10 @@
         <v>101503</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2">
         <v>110</v>
@@ -2765,7 +2766,7 @@
         <v>120</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R30" s="6">
         <v>0</v>
@@ -2785,10 +2786,10 @@
         <v>101504</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -2830,7 +2831,7 @@
         <v>120</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R31" s="6">
         <v>0</v>
@@ -2850,10 +2851,10 @@
         <v>101505</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -2895,7 +2896,7 @@
         <v>120</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R32" s="6">
         <v>0</v>
@@ -2943,31 +2944,31 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1"/>
     </row>
